--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/143.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/143.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3461056688591239</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.946012461598826</v>
+        <v>-1.968835933355911</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04219780585945809</v>
+        <v>0.0323658420152789</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2937957610609063</v>
+        <v>-0.2948104944840878</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3328397636256676</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.052747817236616</v>
+        <v>-2.081091000801381</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0238216405872812</v>
+        <v>0.006698196577103979</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2950543225152695</v>
+        <v>-0.2949375186679968</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3373529425769678</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.178604692696991</v>
+        <v>-2.213871424308845</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05241522239963716</v>
+        <v>0.03893897852054987</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3085568472599932</v>
+        <v>-0.3139429646673554</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3616105269862718</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.322828243116952</v>
+        <v>-2.374635859550711</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07151265142872294</v>
+        <v>0.05963370016108976</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3383447484107124</v>
+        <v>-0.3389827894264396</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3949595053962748</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.522671595536035</v>
+        <v>-2.589925790747563</v>
       </c>
       <c r="F6" t="n">
-        <v>0.104613401697714</v>
+        <v>0.1034497433692598</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3190706535626267</v>
+        <v>-0.3228171369638985</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.4196686654552448</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.454596123273372</v>
+        <v>-2.528741745473988</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2323997307102252</v>
+        <v>0.2294854747207714</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3821593315707916</v>
+        <v>-0.383176985090155</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4220721913248657</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.318515991080453</v>
+        <v>-2.402031471904476</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3252587892920185</v>
+        <v>0.3227153855176555</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4039286486062403</v>
+        <v>-0.4077101731616938</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3963525163913051</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.041609840375119</v>
+        <v>-2.128284865267868</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4442541687491683</v>
+        <v>0.4427225783018051</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3513304161312544</v>
+        <v>-0.3658520544434323</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3440614351195587</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.688458518314441</v>
+        <v>-1.773151527923782</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5235406202778743</v>
+        <v>0.5308978026079633</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2668783144569135</v>
+        <v>-0.2836761677428181</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.266360710947252</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.129112634639227</v>
+        <v>-1.20820051962757</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5045935762021521</v>
+        <v>0.5134443877292406</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2169183888821996</v>
+        <v>-0.2338739273619223</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1646691510479471</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.55758118959729</v>
+        <v>-0.6370997887724504</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4086012544172688</v>
+        <v>0.4166183784844484</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1166174651810447</v>
+        <v>-0.1338445726056765</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.04153645568355325</v>
       </c>
       <c r="E13" t="n">
-        <v>0.007142051196740224</v>
+        <v>-0.08449056698868972</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2710764046383966</v>
+        <v>0.2793957586603944</v>
       </c>
       <c r="G13" t="n">
-        <v>0.008873668232557941</v>
+        <v>-0.00988648968752793</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.09152260897909173</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6062727853011248</v>
+        <v>0.5093387324976054</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.012012319707891</v>
+        <v>-0.01161664667525474</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1509465678146107</v>
+        <v>0.1300401392008891</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2231702991760516</v>
       </c>
       <c r="E15" t="n">
-        <v>1.144094640020162</v>
+        <v>1.053999452474459</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2327029687930136</v>
+        <v>-0.2355617429550128</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3048473169811148</v>
+        <v>0.2803243492462123</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3394767527295812</v>
       </c>
       <c r="E16" t="n">
-        <v>1.69496348447956</v>
+        <v>1.60951709005531</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6163028637655469</v>
+        <v>-0.6305091316900886</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4616944431950727</v>
+        <v>0.4455068900111679</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4388523973949248</v>
       </c>
       <c r="E17" t="n">
-        <v>2.299954851620852</v>
+        <v>2.217181805251056</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8331754870929432</v>
+        <v>-0.8404027251429412</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5965488650156728</v>
+        <v>0.5868307849225846</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5285322579729304</v>
       </c>
       <c r="E18" t="n">
-        <v>2.779396683424905</v>
+        <v>2.688780258710747</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.138849695357498</v>
+        <v>-1.159589678488856</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7588346703682657</v>
+        <v>0.7422894054020883</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6214341613620669</v>
       </c>
       <c r="E19" t="n">
-        <v>3.214950929664333</v>
+        <v>3.117659165078541</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.427988858992511</v>
+        <v>-1.455796934931958</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9400441590271261</v>
+        <v>0.9258466513911299</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7217627333275625</v>
       </c>
       <c r="E20" t="n">
-        <v>3.529214600847704</v>
+        <v>3.433239799639911</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.703578776343891</v>
+        <v>-1.724991841645158</v>
       </c>
       <c r="G20" t="n">
-        <v>1.122211439233623</v>
+        <v>1.105915842490991</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8262256525153676</v>
       </c>
       <c r="E21" t="n">
-        <v>3.897714678464059</v>
+        <v>3.799288456511631</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.97081940868741</v>
+        <v>-1.991481279245905</v>
       </c>
       <c r="G21" t="n">
-        <v>1.253409900634587</v>
+        <v>1.234505197953502</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9275465906652536</v>
       </c>
       <c r="E22" t="n">
-        <v>4.25256476647851</v>
+        <v>4.148415156009719</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.247819002470564</v>
+        <v>-2.277601793452964</v>
       </c>
       <c r="G22" t="n">
-        <v>1.407960371201546</v>
+        <v>1.38748027663037</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.018495105933276</v>
       </c>
       <c r="E23" t="n">
-        <v>4.368150933643387</v>
+        <v>4.254708117075963</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.543186731261393</v>
+        <v>-2.577692047793839</v>
       </c>
       <c r="G23" t="n">
-        <v>1.544933322802055</v>
+        <v>1.530310941171604</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.096094383874242</v>
       </c>
       <c r="E24" t="n">
-        <v>4.565019438077243</v>
+        <v>4.453833855858364</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.862427706386671</v>
+        <v>-2.903400305937796</v>
       </c>
       <c r="G24" t="n">
-        <v>1.624590626545851</v>
+        <v>1.611964130655673</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.15905933855312</v>
       </c>
       <c r="E25" t="n">
-        <v>4.588469270465328</v>
+        <v>4.476848593915358</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.08794016429202</v>
+        <v>-3.134201058028416</v>
       </c>
       <c r="G25" t="n">
-        <v>1.713527995955464</v>
+        <v>1.697639752630195</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.210248462833067</v>
       </c>
       <c r="E26" t="n">
-        <v>4.642734877860132</v>
+        <v>4.521934878962619</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.229397653603754</v>
+        <v>-3.281235201023377</v>
       </c>
       <c r="G26" t="n">
-        <v>1.834763089184068</v>
+        <v>1.819353741632617</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.250603077628342</v>
       </c>
       <c r="E27" t="n">
-        <v>4.634596569801407</v>
+        <v>4.521696891123801</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.365972012075445</v>
+        <v>-3.424775448936793</v>
       </c>
       <c r="G27" t="n">
-        <v>1.882807431663509</v>
+        <v>1.862117090167242</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.282244857710172</v>
       </c>
       <c r="E28" t="n">
-        <v>4.584271632203966</v>
+        <v>4.477901288588903</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.437274190619017</v>
+        <v>-3.504943769512407</v>
       </c>
       <c r="G28" t="n">
-        <v>1.864984624617787</v>
+        <v>1.850295080775154</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.305140378563118</v>
       </c>
       <c r="E29" t="n">
-        <v>4.486144720110174</v>
+        <v>4.384196862162474</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.495868110579319</v>
+        <v>-3.554267844143531</v>
       </c>
       <c r="G29" t="n">
-        <v>1.904195676147231</v>
+        <v>1.888881231721689</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.319784949629924</v>
       </c>
       <c r="E30" t="n">
-        <v>4.436197934968278</v>
+        <v>4.344019258796848</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.60679161416588</v>
+        <v>-3.665889250717546</v>
       </c>
       <c r="G30" t="n">
-        <v>1.930746650680405</v>
+        <v>1.910742531786865</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.32465906069198</v>
       </c>
       <c r="E31" t="n">
-        <v>4.245788683288602</v>
+        <v>4.174855166887984</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.555073790689713</v>
+        <v>-3.60700040104288</v>
       </c>
       <c r="G31" t="n">
-        <v>1.914691961872774</v>
+        <v>1.903159042002686</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.321076256777569</v>
       </c>
       <c r="E32" t="n">
-        <v>4.129053458276179</v>
+        <v>4.071942217152194</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.480472633484732</v>
+        <v>-3.528934549718174</v>
       </c>
       <c r="G32" t="n">
-        <v>1.825269856496979</v>
+        <v>1.809932051301983</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.310600378905777</v>
       </c>
       <c r="E33" t="n">
-        <v>3.902554737885422</v>
+        <v>3.864197814489159</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.485900362262686</v>
+        <v>-3.537128339604354</v>
       </c>
       <c r="G33" t="n">
-        <v>1.78622671049799</v>
+        <v>1.775550838857265</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.29414376089308</v>
       </c>
       <c r="E34" t="n">
-        <v>3.735309149168012</v>
+        <v>3.706422097689383</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.447293770642878</v>
+        <v>-3.497102581240183</v>
       </c>
       <c r="G34" t="n">
-        <v>1.688496931484925</v>
+        <v>1.677878001719746</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.271908827168792</v>
       </c>
       <c r="E35" t="n">
-        <v>3.638018844630311</v>
+        <v>3.613928051130317</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.358384142146992</v>
+        <v>-3.404569113382662</v>
       </c>
       <c r="G35" t="n">
-        <v>1.623567132834124</v>
+        <v>1.615882899731672</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.2448381464232</v>
       </c>
       <c r="E36" t="n">
-        <v>3.432131623138912</v>
+        <v>3.414701569029643</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.279012277804968</v>
+        <v>-3.308516929626051</v>
       </c>
       <c r="G36" t="n">
-        <v>1.527490128259968</v>
+        <v>1.518823282792334</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.213140570190443</v>
       </c>
       <c r="E37" t="n">
-        <v>3.258111411279685</v>
+        <v>3.24897735042296</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.199890081686489</v>
+        <v>-3.228441322104209</v>
       </c>
       <c r="G37" t="n">
-        <v>1.402432629129366</v>
+        <v>1.39765097163164</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.175047176640483</v>
       </c>
       <c r="E38" t="n">
-        <v>3.137016482667809</v>
+        <v>3.121728319107904</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.080877911676294</v>
+        <v>-3.10530232616506</v>
       </c>
       <c r="G38" t="n">
-        <v>1.344594284056108</v>
+        <v>1.333835189674202</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.131805998551118</v>
       </c>
       <c r="E39" t="n">
-        <v>2.810825678629806</v>
+        <v>2.814830590543168</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.948000394970784</v>
+        <v>-2.971717416159505</v>
       </c>
       <c r="G39" t="n">
-        <v>1.212413210289962</v>
+        <v>1.205504262723782</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.081335977108905</v>
       </c>
       <c r="E40" t="n">
-        <v>2.558044632554601</v>
+        <v>2.565617902002144</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.843252894808767</v>
+        <v>-2.864019888829807</v>
       </c>
       <c r="G40" t="n">
-        <v>1.188307816309059</v>
+        <v>1.182082171249425</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.024348238740357</v>
       </c>
       <c r="E41" t="n">
-        <v>2.383833154395466</v>
+        <v>2.384625960508829</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.758518273828835</v>
+        <v>-2.774716047349377</v>
       </c>
       <c r="G41" t="n">
-        <v>1.067364732698637</v>
+        <v>1.058763589395094</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.960701586783409</v>
       </c>
       <c r="E42" t="n">
-        <v>2.155516674131527</v>
+        <v>2.153252139542527</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.660286238272498</v>
+        <v>-2.665032124591997</v>
       </c>
       <c r="G42" t="n">
-        <v>0.973242732518208</v>
+        <v>0.9688523679088457</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8921011728623851</v>
       </c>
       <c r="E43" t="n">
-        <v>2.039841444033104</v>
+        <v>2.037903960216468</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.585512065368746</v>
+        <v>-2.591747200740971</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8679718051156</v>
+        <v>0.8620104287604198</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8207982308119517</v>
       </c>
       <c r="E44" t="n">
-        <v>1.833622791625068</v>
+        <v>1.828882015473887</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.573418487031748</v>
+        <v>-2.584506822258155</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7934859917098018</v>
+        <v>0.7864047584688946</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7494261620530722</v>
       </c>
       <c r="E45" t="n">
-        <v>1.596452579737859</v>
+        <v>1.585489078623225</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.465275645034323</v>
+        <v>-2.473981181776366</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6912461241439202</v>
+        <v>0.6808754025541957</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6802376158245342</v>
       </c>
       <c r="E46" t="n">
-        <v>1.401825249123547</v>
+        <v>1.387065622972552</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.420169649337835</v>
+        <v>-2.434491261061559</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6684883545509263</v>
+        <v>0.6571277203555657</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.614380610140995</v>
       </c>
       <c r="E47" t="n">
-        <v>1.121079901963168</v>
+        <v>1.108668033142354</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.358580440719034</v>
+        <v>-2.36840802441894</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5575904018059561</v>
+        <v>0.550761756884776</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5536627886999677</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9647291921001194</v>
+        <v>0.9477181717929422</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.307129076019457</v>
+        <v>-2.315290744847636</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4702839061138886</v>
+        <v>0.4642086460076175</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4978978631109468</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7409461611584522</v>
+        <v>0.7236767123391842</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.245961821298927</v>
+        <v>-2.256569070679379</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3955265237631814</v>
+        <v>0.3926516890721822</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.447731730732059</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6187357558051214</v>
+        <v>0.5913189727540379</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.196683738182668</v>
+        <v>-2.205100915426756</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3217751145471103</v>
+        <v>0.3160750868002027</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4016055624866195</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4550366239005291</v>
+        <v>0.4116147936769043</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.148877383542044</v>
+        <v>-2.165723418414949</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2641163553890349</v>
+        <v>0.2620620677251263</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3598400820822608</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3378006023929241</v>
+        <v>0.2853775756888473</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.071598498138338</v>
+        <v>-2.088546006353561</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2325428154231342</v>
+        <v>0.2226743503766823</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3219080462595106</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2038806113505056</v>
+        <v>0.150574255551429</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.021586740856397</v>
+        <v>-2.035072475048075</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1346743318414333</v>
+        <v>0.1296649068415255</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2874976407639376</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1662551720477884</v>
+        <v>0.1034920847638962</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.972994880342865</v>
+        <v>-1.98510305916077</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07335085197517699</v>
+        <v>0.06089664175972579</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2558247610567029</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.02200634889016104</v>
+        <v>-0.09337057947759642</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.961213022273277</v>
+        <v>-1.971819541629683</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0307539489229157</v>
+        <v>0.01562347055682886</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2265006867353649</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.141416382005129</v>
+        <v>-0.213745704380655</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.851779497763488</v>
+        <v>-1.854803987383805</v>
       </c>
       <c r="G56" t="n">
-        <v>0.004379640208740966</v>
+        <v>-0.01535874993225373</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1980060825206122</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2973290774409053</v>
+        <v>-0.3710264648776128</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.771240324972782</v>
+        <v>-1.78023422121278</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0474272462009724</v>
+        <v>-0.06465289357751322</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1705765726193137</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3358334656943495</v>
+        <v>-0.4189467032693272</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.758965700672513</v>
+        <v>-1.769607991207146</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1313843915724953</v>
+        <v>-0.1448620954996735</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1442275494014449</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5706544602032865</v>
+        <v>-0.6602327907248079</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.715429986697797</v>
+        <v>-1.722153508156432</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1517973239314898</v>
+        <v>-0.1674519595622129</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1196147411633836</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5922573317563715</v>
+        <v>-0.6850988697610739</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.643940191974544</v>
+        <v>-1.64568494944318</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1943051640502057</v>
+        <v>-0.2041692489523849</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.09769613167774982</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.7333855802236063</v>
+        <v>-0.8449697555713037</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.650605311509542</v>
+        <v>-1.654305073371904</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2391593014510118</v>
+        <v>-0.2529625961024626</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.07885455814902136</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.9023803065539246</v>
+        <v>-1.017099205152803</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.588458364520013</v>
+        <v>-1.592080743833558</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2951025041022695</v>
+        <v>-0.3059346008887212</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.0628543566261483</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.978238565165177</v>
+        <v>-1.099888312051599</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.623154947352367</v>
+        <v>-1.627806660570003</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3541979505817991</v>
+        <v>-0.3639904931275237</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.04992821704886858</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.180192417099668</v>
+        <v>-1.309717663388452</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.58948185823174</v>
+        <v>-1.594008007313557</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3968313548363331</v>
+        <v>-0.413160532685056</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.03901554284125502</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.352603655962713</v>
+        <v>-1.486565988399768</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.535368095838391</v>
+        <v>-1.534328541597664</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4548127846224994</v>
+        <v>-0.4671341304616779</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.02988748350239091</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.478417460004406</v>
+        <v>-1.618459432692005</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.5688834997652</v>
+        <v>-1.563071048315293</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4541864239914996</v>
+        <v>-0.4734210975411307</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.02188475277044212</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.618576236539278</v>
+        <v>-1.762569099360876</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.534143115490119</v>
+        <v>-1.525626654975848</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5048515527941223</v>
+        <v>-0.5257375407345712</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.01448134021375415</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.768293947925329</v>
+        <v>-1.916703456221925</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.566306514884746</v>
+        <v>-1.542642055427298</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5160778625651192</v>
+        <v>-0.5375040682992044</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.007224113944906796</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.867707892411256</v>
+        <v>-2.020961110249442</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.581896908399469</v>
+        <v>-1.553326687356568</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5218976142554813</v>
+        <v>-0.5471987876228382</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>8.125668360660613e-05</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.993266918061086</v>
+        <v>-2.153632760174134</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.590089238237558</v>
+        <v>-1.555821909543931</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6034369199884595</v>
+        <v>-0.6307529597212703</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.006302124045464394</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.070125309614611</v>
+        <v>-2.231602978348886</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.603023804274918</v>
+        <v>-1.563694488850111</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6452731379853573</v>
+        <v>-0.6803814543793479</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.01079494296216696</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.15598781774477</v>
+        <v>-2.314334413348091</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.601417751374919</v>
+        <v>-1.565937122717747</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6530099328190825</v>
+        <v>-0.6764466247743489</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.01225421057736584</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.141261772699865</v>
+        <v>-2.298847683247822</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.591509865030012</v>
+        <v>-1.562224220422566</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7035859986881599</v>
+        <v>-0.7320131350181522</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.009560924624543415</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.184687253043716</v>
+        <v>-2.339707129071902</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.579940443957652</v>
+        <v>-1.545400086271025</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7023829190612511</v>
+        <v>-0.7267774025641536</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.002374503118119324</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.082078723334881</v>
+        <v>-2.237065018256975</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.532379377396301</v>
+        <v>-1.49437870573422</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7239901707586089</v>
+        <v>-0.7469319064110573</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.008913124748127383</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.060510892935977</v>
+        <v>-2.207794704154483</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.417356788794514</v>
+        <v>-1.373514464720707</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7256560856303357</v>
+        <v>-0.7498417822562383</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.02345490838568699</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.910733319578199</v>
+        <v>-2.051343250973162</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.430853473346874</v>
+        <v>-1.387307539035522</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6861544845308009</v>
+        <v>-0.7107285539488852</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.04045708757924295</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.761875576517694</v>
+        <v>-1.895367773469476</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.394537697181702</v>
+        <v>-1.347944642504623</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6955411337072529</v>
+        <v>-0.7214453069361551</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.05835727131241041</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.595095743141284</v>
+        <v>-1.714797785874434</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.341313104075716</v>
+        <v>-1.284054398094549</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6676994766617149</v>
+        <v>-0.6904076046196179</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.07653446088334197</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.397891427646519</v>
+        <v>-1.518627184428032</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.329007818765537</v>
+        <v>-1.274743671418825</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5989750130226424</v>
+        <v>-0.6211181023693638</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.09404466900732196</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.23906593626938</v>
+        <v>-1.350191656516532</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.215839491239204</v>
+        <v>-1.164724667624581</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5415104402606579</v>
+        <v>-0.5642550694208336</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1109866085830163</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.020820867736529</v>
+        <v>-1.131940747791317</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.18532010599494</v>
+        <v>-1.140119937196588</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5018350934383049</v>
+        <v>-0.5232919601822992</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1275094111785849</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.7512478085677834</v>
+        <v>-0.8550002859558464</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.100016796283599</v>
+        <v>-1.051280391009066</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4722632794050401</v>
+        <v>-0.494077857931307</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1427841443818445</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.4411569548282303</v>
+        <v>-0.5318668226202059</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.037150045585252</v>
+        <v>-0.9797789159010857</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4171931855121458</v>
+        <v>-0.4365870043036861</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1559803522017832</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.2135325373593824</v>
+        <v>-0.2919093789274522</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9773873571281773</v>
+        <v>-0.9237700110857371</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3798466153947923</v>
+        <v>-0.3875819501804265</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1661133928397844</v>
       </c>
       <c r="E86" t="n">
-        <v>0.05413661909881851</v>
+        <v>-0.01452944261661759</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.924394911668646</v>
+        <v>-0.8641781482552985</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.288314740527635</v>
+        <v>-0.302018751908904</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1722024143232208</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3057335661722964</v>
+        <v>0.241965965801859</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8212191532764919</v>
+        <v>-0.7637151592160528</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2236784115431069</v>
+        <v>-0.2349324622278312</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1724799523291714</v>
       </c>
       <c r="E88" t="n">
-        <v>0.511968279109332</v>
+        <v>0.4487306761958944</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6883226559458003</v>
+        <v>-0.6431735888306306</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1922158352321153</v>
+        <v>-0.2033063605306578</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1655154842938866</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7934553306998927</v>
+        <v>0.7336853420023633</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5335882193193873</v>
+        <v>-0.4895852899555809</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1151355163687724</v>
+        <v>-0.1268363417693147</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1506684469428475</v>
       </c>
       <c r="E90" t="n">
-        <v>1.042816944146189</v>
+        <v>0.9834937301644781</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.3965408052662423</v>
+        <v>-0.3556039768933442</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.06164811460642312</v>
+        <v>-0.07140123585369323</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1293843518418903</v>
       </c>
       <c r="E91" t="n">
-        <v>1.220761765273778</v>
+        <v>1.164463770936429</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2177725170153812</v>
+        <v>-0.1752296357424835</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03632066037342992</v>
+        <v>-0.04116948008333771</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1047221202128379</v>
       </c>
       <c r="E92" t="n">
-        <v>1.341607025662109</v>
+        <v>1.298220236592666</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.07001711026351179</v>
+        <v>-0.02561412772279643</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.03761280293388412</v>
+        <v>-0.04144396912442855</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.07995413620123987</v>
       </c>
       <c r="E93" t="n">
-        <v>1.445937682094172</v>
+        <v>1.410467273773636</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09670432118926163</v>
+        <v>0.1307979041600706</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03699520259142974</v>
+        <v>-0.04133738561379222</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.05803823568625551</v>
       </c>
       <c r="E94" t="n">
-        <v>1.45075438074608</v>
+        <v>1.435736326082993</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2345985631351337</v>
+        <v>0.2648624399634892</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.05796003312878775</v>
+        <v>-0.06717001648623983</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.04072330581253483</v>
       </c>
       <c r="E95" t="n">
-        <v>1.491767131619705</v>
+        <v>1.483488658944253</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4004439657333619</v>
+        <v>0.4225958153686287</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08109449512923608</v>
+        <v>-0.08650835345032554</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.02720884082870397</v>
       </c>
       <c r="E96" t="n">
-        <v>1.430668499159449</v>
+        <v>1.436624035322265</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4433065975381685</v>
+        <v>0.4623368643550725</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1178585060583171</v>
+        <v>-0.1240096886653155</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.01702339827133895</v>
       </c>
       <c r="E97" t="n">
-        <v>1.359673660739013</v>
+        <v>1.364026064098012</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5212863060255113</v>
+        <v>0.5349143949060531</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1535508416886712</v>
+        <v>-0.1616059270062145</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.007771379333694459</v>
       </c>
       <c r="E98" t="n">
-        <v>1.26785853654222</v>
+        <v>1.272262041584401</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5460516417435046</v>
+        <v>0.5587730407595921</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1932962708193878</v>
+        <v>-0.1968412675841141</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.001722348816593465</v>
       </c>
       <c r="E99" t="n">
-        <v>1.205454621088691</v>
+        <v>1.221253801480414</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5704957668814981</v>
+        <v>0.5763651602069511</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2165227158495633</v>
+        <v>-0.213490195964746</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.01404953258342638</v>
       </c>
       <c r="E100" t="n">
-        <v>1.108859299442263</v>
+        <v>1.11560326157417</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5443638261504141</v>
+        <v>0.54662252054705</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2328299929769226</v>
+        <v>-0.2300997030469233</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.02765554332738418</v>
       </c>
       <c r="E101" t="n">
-        <v>1.020552670807923</v>
+        <v>1.033095943956919</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5296918028848726</v>
+        <v>0.5297385244237817</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2244945784259249</v>
+        <v>-0.2214270173869257</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.04791648008627374</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9527027759753045</v>
+        <v>0.961601769089393</v>
       </c>
       <c r="F102" t="n">
-        <v>0.469926194331616</v>
+        <v>0.4754437160671599</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2513784439238267</v>
+        <v>-0.249662887417009</v>
       </c>
     </row>
   </sheetData>
